--- a/mosip_master/xlsx/identity_schema.xlsx
+++ b/mosip_master/xlsx/identity_schema.xlsx
@@ -61,7 +61,7 @@
     <t xml:space="preserve">Mosip Sample identity</t>
   </si>
   <si>
-    <t xml:space="preserve">{"id":"1001","idVersion":0.1,"schemaJson":"{\"$schema\":\"http:\\/\\/json-schema.org\\/draft-07\\/schema#\",\"description\":\"MOSIP Sample identity\",\"additionalProperties\":false,\"title\":\"MOSIP identity\",\"type\":\"object\",\"definitions\":{\"simpleType\":{\"uniqueItems\":true,\"additionalItems\":false,\"type\":\"array\",\"items\":{\"additionalProperties\":false,\"type\":\"object\",\"required\":[\"language\",\"value\"],\"properties\":{\"language\":{\"type\":\"string\"},\"value\":{\"type\":\"string\"}}}},\"documentType\":{\"additionalProperties\":false,\"type\":\"object\",\"properties\":{\"format\":{\"type\":\"string\"},\"type\":{\"type\":\"string\"},\"value\":{\"type\":\"string\"},\"refNumber\":{\"type\":[\"string\",\"null\"]}}},\"biometricsType\":{\"additionalProperties\":false,\"type\":\"object\",\"properties\":{\"format\":{\"type\":\"string\"},\"version\":{\"type\":\"number\",\"minimum\":0},\"value\":{\"type\":\"string\"}}}},\"properties\":{\"identity\":{\"additionalProperties\":false,\"type\":\"object\",\"required\":[\"IDSchemaVersion\",\"fullName\",\"dateOfBirth\",\"gender\",\"addressLine1\",\"addressLine2\",\"addressLine3\",\"region\",\"province\",\"city\",\"zone\",\"postalCode\",\"phone\",\"email\",\"proofOfIdentity\",\"individualBiometrics\"],\"properties\":{\"proofOfAddress\":{\"bioAttributes\":[],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/documentType\"},\"gender\":{\"bioAttributes\":[],\"fieldCategory\":\"pvt\",\"format\":\"\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/simpleType\"},\"city\":{\"bioAttributes\":[],\"validators\":[{\"validator\":\"^(?=.{0,50}$).*\",\"arguments\":[],\"type\":\"regex\"}],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/simpleType\"},\"postalCode\":{\"bioAttributes\":[],\"validators\":[{\"validator\":\"^[(?i)A-Z0-9]{5}$|^NA$\",\"arguments\":[],\"type\":\"regex\"}],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"type\":\"string\",\"fieldType\":\"default\"},\"proofOfException-1\":{\"bioAttributes\":[],\"fieldCategory\":\"evidence\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/documentType\"},\"referenceIdentityNumber\":{\"bioAttributes\":[],\"validators\":[{\"validator\":\"^([0-9]{10,30})$\",\"arguments\":[],\"type\":\"regex\"}],\"fieldCategory\":\"pvt\",\"format\":\"kyc\",\"type\":\"string\",\"fieldType\":\"default\"},\"individualBiometrics\":{\"bioAttributes\":[\"leftEye\",\"rightEye\",\"rightIndex\",\"rightLittle\",\"rightRing\",\"rightMiddle\",\"leftIndex\",\"leftLittle\",\"leftRing\",\"leftMiddle\",\"leftThumb\",\"rightThumb\",\"face\"],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/biometricsType\"},\"province\":{\"bioAttributes\":[],\"validators\":[{\"validator\":\"^(?=.{0,50}$).*\",\"arguments\":[],\"type\":\"regex\"}],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/simpleType\"},\"zone\":{\"bioAttributes\":[],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/simpleType\"},\"proofOfDateOfBirth\":{\"bioAttributes\":[],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/documentType\"},\"addressLine1\":{\"bioAttributes\":[],\"validators\":[{\"validator\":\"^(?=.{0,50}$).*\",\"arguments\":[],\"type\":\"regex\"}],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/simpleType\"},\"addressLine2\":{\"bioAttributes\":[],\"validators\":[{\"validator\":\"^(?=.{3,50}$).*\",\"arguments\":[],\"type\":\"regex\"}],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/simpleType\"},\"residenceStatus\":{\"bioAttributes\":[],\"fieldCategory\":\"kyc\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/simpleType\"},\"addressLine3\":{\"bioAttributes\":[],\"validators\":[{\"validator\":\"^(?=.{3,50}$).*\",\"arguments\":[],\"type\":\"regex\"}],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/simpleType\"},\"email\":{\"bioAttributes\":[],\"validators\":[{\"validator\":\"^[A-Za-z0-9_\\\\-]+(\\\\.[A-Za-z0-9_]+)*@[A-Za-z0-9_-]+(\\\\.[A-Za-z0-9_]+)*(\\\\.[a-zA-Z]{2,})$\",\"arguments\":[],\"type\":\"regex\"}],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"type\":\"string\",\"fieldType\":\"default\"},\"introducerRID\":{\"bioAttributes\":[],\"fieldCategory\":\"evidence\",\"format\":\"none\",\"type\":\"string\",\"fieldType\":\"default\"},\"introducerBiometrics\":{\"bioAttributes\":[\"leftEye\",\"rightEye\",\"rightIndex\",\"rightLittle\",\"rightRing\",\"rightMiddle\",\"leftIndex\",\"leftLittle\",\"leftRing\",\"leftMiddle\",\"leftThumb\",\"rightThumb\",\"face\"],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/biometricsType\"},\"fullName\":{\"bioAttributes\":[],\"validators\":[{\"validator\":\"^(?=.{3,50}$).*\",\"arguments\":[],\"type\":\"regex\"}],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/simpleType\"},\"dateOfBirth\":{\"bioAttributes\":[],\"validators\":[{\"validator\":\"^(1869|18[7-9][0-9]|19[0-9][0-9]|20[0-9][0-9])\\/([0][1-9]|1[0-2])\\/([0][1-9]|[1-2][0-9]|3[01])$\",\"arguments\":[],\"type\":\"regex\"}],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"type\":\"string\",\"fieldType\":\"default\"},\"individualAuthBiometrics\":{\"bioAttributes\":[\"leftEye\",\"rightEye\",\"rightIndex\",\"rightLittle\",\"rightRing\",\"rightMiddle\",\"leftIndex\",\"leftLittle\",\"leftRing\",\"leftMiddle\",\"leftThumb\",\"rightThumb\",\"face\"],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/biometricsType\"},\"introducerUIN\":{\"bioAttributes\":[],\"fieldCategory\":\"evidence\",\"format\":\"none\",\"type\":\"string\",\"fieldType\":\"default\"},\"proofOfIdentity\":{\"bioAttributes\":[],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/documentType\"},\"IDSchemaVersion\":{\"bioAttributes\":[],\"fieldCategory\":\"none\",\"format\":\"none\",\"type\":\"number\",\"fieldType\":\"default\",\"minimum\":0},\"proofOfException\":{\"bioAttributes\":[],\"fieldCategory\":\"evidence\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/documentType\"},\"phone\":{\"bioAttributes\":[],\"validators\":[{\"validator\":\"^[+]*([0-9]{1})([0-9]{9})$\",\"arguments\":[],\"type\":\"regex\"}],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"type\":\"string\",\"fieldType\":\"default\"},\"introducerName\":{\"bioAttributes\":[],\"fieldCategory\":\"evidence\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/simpleType\"},\"proofOfRelationship\":{\"bioAttributes\":[],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/documentType\"},\"UIN\":{\"bioAttributes\":[],\"fieldCategory\":\"none\",\"format\":\"none\",\"type\":\"string\",\"fieldType\":\"default\"},\"region\":{\"bioAttributes\":[],\"validators\":[{\"validator\":\"^(?=.{0,50}$).*\",\"arguments\":[],\"type\":\"regex\"}],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/simpleType\"}}}}}","effectiveFrom":"2022-03-15T06:05:25.152","settings":[{"name":"scheduledjobs","description":{"ara":"إعدادات الوظائف المجدولة","fra":"Paramètres des travaux planifiés","eng":"Scheduled Jobs Settings"},"label":{"ara":"إعدادات الوظائف المجدولة","fra":"Paramètres des travaux planifiés","eng":"Scheduled Jobs Settings"},"fxml":"ScheduledJobsSettings.fxml","icon":"scheduledjobs.png","order":"1","shortcut-icon":"scheduledjobs-shortcut.png","access-control":["REGISTRATION_SUPERVISOR"]},{"name":"globalconfigs","description":{"ara":"إعدادات التكوين العامة","fra":"Paramètres de configuration globale","eng":"Global Config Settings"},"label":{"ara":"إعدادات التكوين العامة","fra":"Paramètres de configuration globale","eng":"Global Config Settings"},"fxml":"GlobalConfigSettings.fxml","icon":"globalconfigs.png","order":"2","shortcut-icon":"globalconfigs-shortcut.png","access-control":["REGISTRATION_SUPERVISOR","REGISTRATION_OFFICER"]},{"name":"devices","description":{"ara":"إعدادات الجهاز","fra":"Réglages de l'appareil","eng":"Device Settings"},"label":{"ara":"إعدادات الجهاز","fra":"Réglages de l'appareil","eng":"Device Settings"},"fxml":"DeviceSettings.fxml","icon":"devices.png","order":"3","shortcut-icon":"devices-shortcut.png","access-control":["REGISTRATION_SUPERVISOR","REGISTRATION_OFFICER"]}]}</t>
+    <t xml:space="preserve">{\"$schema\":\"http:\\/\\/json-schema.org\\/draft-07\\/schema#\",\"description\":\"MOSIP Sample identity\",\"additionalProperties\":false,\"title\":\"MOSIP identity\",\"type\":\"object\",\"definitions\":{\"simpleType\":{\"uniqueItems\":true,\"additionalItems\":false,\"type\":\"array\",\"items\":{\"additionalProperties\":false,\"type\":\"object\",\"required\":[\"language\",\"value\"],\"properties\":{\"language\":{\"type\":\"string\"},\"value\":{\"type\":\"string\"}}}},\"documentType\":{\"additionalProperties\":false,\"type\":\"object\",\"properties\":{\"format\":{\"type\":\"string\"},\"type\":{\"type\":\"string\"},\"value\":{\"type\":\"string\"},\"refNumber\":{\"type\":[\"string\",\"null\"]}}},\"biometricsType\":{\"additionalProperties\":false,\"type\":\"object\",\"properties\":{\"format\":{\"type\":\"string\"},\"version\":{\"type\":\"number\",\"minimum\":0},\"value\":{\"type\":\"string\"}}}},\"properties\":{\"identity\":{\"additionalProperties\":false,\"type\":\"object\",\"required\":[\"IDSchemaVersion\",\"fullName\",\"dateOfBirth\",\"gender\",\"addressLine1\",\"addressLine2\",\"addressLine3\",\"region\",\"province\",\"city\",\"zone\",\"postalCode\",\"phone\",\"email\",\"proofOfIdentity\",\"individualBiometrics\"],\"properties\":{\"proofOfAddress\":{\"bioAttributes\":[],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/documentType\"},\"gender\":{\"bioAttributes\":[],\"fieldCategory\":\"pvt\",\"format\":\"\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/simpleType\"},\"city\":{\"bioAttributes\":[],\"validators\":[{\"validator\":\"^(?=.{0,50}$).*\",\"arguments\":[],\"type\":\"regex\"}],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/simpleType\"},\"postalCode\":{\"bioAttributes\":[],\"validators\":[{\"validator\":\"^[(?i)A-Z0-9]{5}$|^NA$\",\"arguments\":[],\"type\":\"regex\"}],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"type\":\"string\",\"fieldType\":\"default\"},\"proofOfException-1\":{\"bioAttributes\":[],\"fieldCategory\":\"evidence\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/documentType\"},\"referenceIdentityNumber\":{\"bioAttributes\":[],\"validators\":[{\"validator\":\"^([0-9]{10,30})$\",\"arguments\":[],\"type\":\"regex\"}],\"fieldCategory\":\"pvt\",\"format\":\"kyc\",\"type\":\"string\",\"fieldType\":\"default\"},\"individualBiometrics\":{\"bioAttributes\":[\"leftEye\",\"rightEye\",\"rightIndex\",\"rightLittle\",\"rightRing\",\"rightMiddle\",\"leftIndex\",\"leftLittle\",\"leftRing\",\"leftMiddle\",\"leftThumb\",\"rightThumb\",\"face\"],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/biometricsType\"},\"province\":{\"bioAttributes\":[],\"validators\":[{\"validator\":\"^(?=.{0,50}$).*\",\"arguments\":[],\"type\":\"regex\"}],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/simpleType\"},\"zone\":{\"bioAttributes\":[],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/simpleType\"},\"proofOfDateOfBirth\":{\"bioAttributes\":[],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/documentType\"},\"addressLine1\":{\"bioAttributes\":[],\"validators\":[{\"validator\":\"^(?=.{0,50}$).*\",\"arguments\":[],\"type\":\"regex\"}],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/simpleType\"},\"addressLine2\":{\"bioAttributes\":[],\"validators\":[{\"validator\":\"^(?=.{3,50}$).*\",\"arguments\":[],\"type\":\"regex\"}],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/simpleType\"},\"residenceStatus\":{\"bioAttributes\":[],\"fieldCategory\":\"kyc\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/simpleType\"},\"addressLine3\":{\"bioAttributes\":[],\"validators\":[{\"validator\":\"^(?=.{3,50}$).*\",\"arguments\":[],\"type\":\"regex\"}],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/simpleType\"},\"email\":{\"bioAttributes\":[],\"validators\":[{\"validator\":\"^[A-Za-z0-9_\\\\-]+(\\\\.[A-Za-z0-9_]+)*@[A-Za-z0-9_-]+(\\\\.[A-Za-z0-9_]+)*(\\\\.[a-zA-Z]{2,})$\",\"arguments\":[],\"type\":\"regex\"}],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"type\":\"string\",\"fieldType\":\"default\"},\"introducerRID\":{\"bioAttributes\":[],\"fieldCategory\":\"evidence\",\"format\":\"none\",\"type\":\"string\",\"fieldType\":\"default\"},\"introducerBiometrics\":{\"bioAttributes\":[\"leftEye\",\"rightEye\",\"rightIndex\",\"rightLittle\",\"rightRing\",\"rightMiddle\",\"leftIndex\",\"leftLittle\",\"leftRing\",\"leftMiddle\",\"leftThumb\",\"rightThumb\",\"face\"],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/biometricsType\"},\"fullName\":{\"bioAttributes\":[],\"validators\":[{\"validator\":\"^(?=.{3,50}$).*\",\"arguments\":[],\"type\":\"regex\"}],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/simpleType\"},\"dateOfBirth\":{\"bioAttributes\":[],\"validators\":[{\"validator\":\"^(1869|18[7-9][0-9]|19[0-9][0-9]|20[0-9][0-9])\\/([0][1-9]|1[0-2])\\/([0][1-9]|[1-2][0-9]|3[01])$\",\"arguments\":[],\"type\":\"regex\"}],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"type\":\"string\",\"fieldType\":\"default\"},\"individualAuthBiometrics\":{\"bioAttributes\":[\"leftEye\",\"rightEye\",\"rightIndex\",\"rightLittle\",\"rightRing\",\"rightMiddle\",\"leftIndex\",\"leftLittle\",\"leftRing\",\"leftMiddle\",\"leftThumb\",\"rightThumb\",\"face\"],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/biometricsType\"},\"introducerUIN\":{\"bioAttributes\":[],\"fieldCategory\":\"evidence\",\"format\":\"none\",\"type\":\"string\",\"fieldType\":\"default\"},\"proofOfIdentity\":{\"bioAttributes\":[],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/documentType\"},\"IDSchemaVersion\":{\"bioAttributes\":[],\"fieldCategory\":\"none\",\"format\":\"none\",\"type\":\"number\",\"fieldType\":\"default\",\"minimum\":0},\"proofOfException\":{\"bioAttributes\":[],\"fieldCategory\":\"evidence\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/documentType\"},\"phone\":{\"bioAttributes\":[],\"validators\":[{\"validator\":\"^[+]*([0-9]{1})([0-9]{9})$\",\"arguments\":[],\"type\":\"regex\"}],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"type\":\"string\",\"fieldType\":\"default\"},\"introducerName\":{\"bioAttributes\":[],\"fieldCategory\":\"evidence\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/simpleType\"},\"proofOfRelationship\":{\"bioAttributes\":[],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/documentType\"},\"UIN\":{\"bioAttributes\":[],\"fieldCategory\":\"none\",\"format\":\"none\",\"type\":\"string\",\"fieldType\":\"default\"},\"region\":{\"bioAttributes\":[],\"validators\":[{\"validator\":\"^(?=.{0,50}$).*\",\"arguments\":[],\"type\":\"regex\"}],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/simpleType\"}}}}}</t>
   </si>
   <si>
     <t xml:space="preserve">PUBLISHED</t>
@@ -208,8 +208,8 @@
   </sheetPr>
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C15" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F30" activeCellId="0" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/mosip_master/xlsx/identity_schema.xlsx
+++ b/mosip_master/xlsx/identity_schema.xlsx
@@ -61,7 +61,7 @@
     <t xml:space="preserve">Mosip Sample identity</t>
   </si>
   <si>
-    <t xml:space="preserve">{\"$schema\":\"http:\\/\\/json-schema.org\\/draft-07\\/schema#\",\"description\":\"MOSIP Sample identity\",\"additionalProperties\":false,\"title\":\"MOSIP identity\",\"type\":\"object\",\"definitions\":{\"simpleType\":{\"uniqueItems\":true,\"additionalItems\":false,\"type\":\"array\",\"items\":{\"additionalProperties\":false,\"type\":\"object\",\"required\":[\"language\",\"value\"],\"properties\":{\"language\":{\"type\":\"string\"},\"value\":{\"type\":\"string\"}}}},\"documentType\":{\"additionalProperties\":false,\"type\":\"object\",\"properties\":{\"format\":{\"type\":\"string\"},\"type\":{\"type\":\"string\"},\"value\":{\"type\":\"string\"},\"refNumber\":{\"type\":[\"string\",\"null\"]}}},\"biometricsType\":{\"additionalProperties\":false,\"type\":\"object\",\"properties\":{\"format\":{\"type\":\"string\"},\"version\":{\"type\":\"number\",\"minimum\":0},\"value\":{\"type\":\"string\"}}}},\"properties\":{\"identity\":{\"additionalProperties\":false,\"type\":\"object\",\"required\":[\"IDSchemaVersion\",\"fullName\",\"dateOfBirth\",\"gender\",\"addressLine1\",\"addressLine2\",\"addressLine3\",\"region\",\"province\",\"city\",\"zone\",\"postalCode\",\"phone\",\"email\",\"proofOfIdentity\",\"individualBiometrics\"],\"properties\":{\"proofOfAddress\":{\"bioAttributes\":[],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/documentType\"},\"gender\":{\"bioAttributes\":[],\"fieldCategory\":\"pvt\",\"format\":\"\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/simpleType\"},\"city\":{\"bioAttributes\":[],\"validators\":[{\"validator\":\"^(?=.{0,50}$).*\",\"arguments\":[],\"type\":\"regex\"}],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/simpleType\"},\"postalCode\":{\"bioAttributes\":[],\"validators\":[{\"validator\":\"^[(?i)A-Z0-9]{5}$|^NA$\",\"arguments\":[],\"type\":\"regex\"}],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"type\":\"string\",\"fieldType\":\"default\"},\"proofOfException-1\":{\"bioAttributes\":[],\"fieldCategory\":\"evidence\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/documentType\"},\"referenceIdentityNumber\":{\"bioAttributes\":[],\"validators\":[{\"validator\":\"^([0-9]{10,30})$\",\"arguments\":[],\"type\":\"regex\"}],\"fieldCategory\":\"pvt\",\"format\":\"kyc\",\"type\":\"string\",\"fieldType\":\"default\"},\"individualBiometrics\":{\"bioAttributes\":[\"leftEye\",\"rightEye\",\"rightIndex\",\"rightLittle\",\"rightRing\",\"rightMiddle\",\"leftIndex\",\"leftLittle\",\"leftRing\",\"leftMiddle\",\"leftThumb\",\"rightThumb\",\"face\"],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/biometricsType\"},\"province\":{\"bioAttributes\":[],\"validators\":[{\"validator\":\"^(?=.{0,50}$).*\",\"arguments\":[],\"type\":\"regex\"}],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/simpleType\"},\"zone\":{\"bioAttributes\":[],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/simpleType\"},\"proofOfDateOfBirth\":{\"bioAttributes\":[],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/documentType\"},\"addressLine1\":{\"bioAttributes\":[],\"validators\":[{\"validator\":\"^(?=.{0,50}$).*\",\"arguments\":[],\"type\":\"regex\"}],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/simpleType\"},\"addressLine2\":{\"bioAttributes\":[],\"validators\":[{\"validator\":\"^(?=.{3,50}$).*\",\"arguments\":[],\"type\":\"regex\"}],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/simpleType\"},\"residenceStatus\":{\"bioAttributes\":[],\"fieldCategory\":\"kyc\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/simpleType\"},\"addressLine3\":{\"bioAttributes\":[],\"validators\":[{\"validator\":\"^(?=.{3,50}$).*\",\"arguments\":[],\"type\":\"regex\"}],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/simpleType\"},\"email\":{\"bioAttributes\":[],\"validators\":[{\"validator\":\"^[A-Za-z0-9_\\\\-]+(\\\\.[A-Za-z0-9_]+)*@[A-Za-z0-9_-]+(\\\\.[A-Za-z0-9_]+)*(\\\\.[a-zA-Z]{2,})$\",\"arguments\":[],\"type\":\"regex\"}],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"type\":\"string\",\"fieldType\":\"default\"},\"introducerRID\":{\"bioAttributes\":[],\"fieldCategory\":\"evidence\",\"format\":\"none\",\"type\":\"string\",\"fieldType\":\"default\"},\"introducerBiometrics\":{\"bioAttributes\":[\"leftEye\",\"rightEye\",\"rightIndex\",\"rightLittle\",\"rightRing\",\"rightMiddle\",\"leftIndex\",\"leftLittle\",\"leftRing\",\"leftMiddle\",\"leftThumb\",\"rightThumb\",\"face\"],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/biometricsType\"},\"fullName\":{\"bioAttributes\":[],\"validators\":[{\"validator\":\"^(?=.{3,50}$).*\",\"arguments\":[],\"type\":\"regex\"}],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/simpleType\"},\"dateOfBirth\":{\"bioAttributes\":[],\"validators\":[{\"validator\":\"^(1869|18[7-9][0-9]|19[0-9][0-9]|20[0-9][0-9])\\/([0][1-9]|1[0-2])\\/([0][1-9]|[1-2][0-9]|3[01])$\",\"arguments\":[],\"type\":\"regex\"}],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"type\":\"string\",\"fieldType\":\"default\"},\"individualAuthBiometrics\":{\"bioAttributes\":[\"leftEye\",\"rightEye\",\"rightIndex\",\"rightLittle\",\"rightRing\",\"rightMiddle\",\"leftIndex\",\"leftLittle\",\"leftRing\",\"leftMiddle\",\"leftThumb\",\"rightThumb\",\"face\"],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/biometricsType\"},\"introducerUIN\":{\"bioAttributes\":[],\"fieldCategory\":\"evidence\",\"format\":\"none\",\"type\":\"string\",\"fieldType\":\"default\"},\"proofOfIdentity\":{\"bioAttributes\":[],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/documentType\"},\"IDSchemaVersion\":{\"bioAttributes\":[],\"fieldCategory\":\"none\",\"format\":\"none\",\"type\":\"number\",\"fieldType\":\"default\",\"minimum\":0},\"proofOfException\":{\"bioAttributes\":[],\"fieldCategory\":\"evidence\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/documentType\"},\"phone\":{\"bioAttributes\":[],\"validators\":[{\"validator\":\"^[+]*([0-9]{1})([0-9]{9})$\",\"arguments\":[],\"type\":\"regex\"}],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"type\":\"string\",\"fieldType\":\"default\"},\"introducerName\":{\"bioAttributes\":[],\"fieldCategory\":\"evidence\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/simpleType\"},\"proofOfRelationship\":{\"bioAttributes\":[],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/documentType\"},\"UIN\":{\"bioAttributes\":[],\"fieldCategory\":\"none\",\"format\":\"none\",\"type\":\"string\",\"fieldType\":\"default\"},\"region\":{\"bioAttributes\":[],\"validators\":[{\"validator\":\"^(?=.{0,50}$).*\",\"arguments\":[],\"type\":\"regex\"}],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/simpleType\"}}}}}</t>
+    <t xml:space="preserve">{"$schema":"http:\/\/json-schema.org\/draft-07\/schema#","description":"MOSIP Sample identity","additionalProperties":false,"title":"MOSIP identity","type":"object","definitions":{"simpleType":{"uniqueItems":true,"additionalItems":false,"type":"array","items":{"additionalProperties":false,"type":"object","required":["language","value"],"properties":{"language":{"type":"string"},"value":{"type":"string"}}}},"documentType":{"additionalProperties":false,"type":"object","properties":{"format":{"type":"string"},"type":{"type":"string"},"value":{"type":"string"},"refNumber":{"type":["string","null"]}}},"biometricsType":{"additionalProperties":false,"type":"object","properties":{"format":{"type":"string"},"version":{"type":"number","minimum":0},"value":{"type":"string"}}}},"properties":{"identity":{"additionalProperties":false,"type":"object","required":["IDSchemaVersion","fullName","dateOfBirth","gender","addressLine1","addressLine2","addressLine3","region","province","city","zone","postalCode","phone","email","proofOfIdentity","individualBiometrics"],"properties":{"proofOfAddress":{"bioAttributes":[],"fieldCategory":"pvt","format":"none","fieldType":"default","$ref":"#\/definitions\/documentType"},"gender":{"bioAttributes":[],"fieldCategory":"pvt","format":"","fieldType":"default","$ref":"#\/definitions\/simpleType"},"city":{"bioAttributes":[],"validators":[{"validator":"^(?=.{0,50}$).*","arguments":[],"type":"regex"}],"fieldCategory":"pvt","format":"none","fieldType":"default","$ref":"#\/definitions\/simpleType"},"postalCode":{"bioAttributes":[],"validators":[{"validator":"^[(?i)A-Z0-9]{5}$|^NA$","arguments":[],"type":"regex"}],"fieldCategory":"pvt","format":"none","type":"string","fieldType":"default"},"proofOfException-1":{"bioAttributes":[],"fieldCategory":"evidence","format":"none","fieldType":"default","$ref":"#\/definitions\/documentType"},"referenceIdentityNumber":{"bioAttributes":[],"validators":[{"validator":"^([0-9]{10,30})$","arguments":[],"type":"regex"}],"fieldCategory":"pvt","format":"kyc","type":"string","fieldType":"default"},"individualBiometrics":{"bioAttributes":["leftEye","rightEye","rightIndex","rightLittle","rightRing","rightMiddle","leftIndex","leftLittle","leftRing","leftMiddle","leftThumb","rightThumb","face"],"fieldCategory":"pvt","format":"none","fieldType":"default","$ref":"#\/definitions\/biometricsType"},"province":{"bioAttributes":[],"validators":[{"validator":"^(?=.{0,50}$).*","arguments":[],"type":"regex"}],"fieldCategory":"pvt","format":"none","fieldType":"default","$ref":"#\/definitions\/simpleType"},"zone":{"bioAttributes":[],"fieldCategory":"pvt","format":"none","fieldType":"default","$ref":"#\/definitions\/simpleType"},"proofOfDateOfBirth":{"bioAttributes":[],"fieldCategory":"pvt","format":"none","fieldType":"default","$ref":"#\/definitions\/documentType"},"addressLine1":{"bioAttributes":[],"validators":[{"validator":"^(?=.{0,50}$).*","arguments":[],"type":"regex"}],"fieldCategory":"pvt","format":"none","fieldType":"default","$ref":"#\/definitions\/simpleType"},"addressLine2":{"bioAttributes":[],"validators":[{"validator":"^(?=.{3,50}$).*","arguments":[],"type":"regex"}],"fieldCategory":"pvt","format":"none","fieldType":"default","$ref":"#\/definitions\/simpleType"},"residenceStatus":{"bioAttributes":[],"fieldCategory":"kyc","format":"none","fieldType":"default","$ref":"#\/definitions\/simpleType"},"addressLine3":{"bioAttributes":[],"validators":[{"validator":"^(?=.{3,50}$).*","arguments":[],"type":"regex"}],"fieldCategory":"pvt","format":"none","fieldType":"default","$ref":"#\/definitions\/simpleType"},"email":{"bioAttributes":[],"validators":[{"validator":"^[A-Za-z0-9_\\-]+(\\.[A-Za-z0-9_]+)*@[A-Za-z0-9_-]+(\\.[A-Za-z0-9_]+)*(\\.[a-zA-Z]{2,})$","arguments":[],"type":"regex"}],"fieldCategory":"pvt","format":"none","type":"string","fieldType":"default"},"introducerRID":{"bioAttributes":[],"fieldCategory":"evidence","format":"none","type":"string","fieldType":"default"},"introducerBiometrics":{"bioAttributes":["leftEye","rightEye","rightIndex","rightLittle","rightRing","rightMiddle","leftIndex","leftLittle","leftRing","leftMiddle","leftThumb","rightThumb","face"],"fieldCategory":"pvt","format":"none","fieldType":"default","$ref":"#\/definitions\/biometricsType"},"fullName":{"bioAttributes":[],"validators":[{"validator":"^(?=.{3,50}$).*","arguments":[],"type":"regex"}],"fieldCategory":"pvt","format":"none","fieldType":"default","$ref":"#\/definitions\/simpleType"},"dateOfBirth":{"bioAttributes":[],"validators":[{"validator":"^(1869|18[7-9][0-9]|19[0-9][0-9]|20[0-9][0-9])\/([0][1-9]|1[0-2])\/([0][1-9]|[1-2][0-9]|3[01])$","arguments":[],"type":"regex"}],"fieldCategory":"pvt","format":"none","type":"string","fieldType":"default"},"individualAuthBiometrics":{"bioAttributes":["leftEye","rightEye","rightIndex","rightLittle","rightRing","rightMiddle","leftIndex","leftLittle","leftRing","leftMiddle","leftThumb","rightThumb","face"],"fieldCategory":"pvt","format":"none","fieldType":"default","$ref":"#\/definitions\/biometricsType"},"introducerUIN":{"bioAttributes":[],"fieldCategory":"evidence","format":"none","type":"string","fieldType":"default"},"proofOfIdentity":{"bioAttributes":[],"fieldCategory":"pvt","format":"none","fieldType":"default","$ref":"#\/definitions\/documentType"},"IDSchemaVersion":{"bioAttributes":[],"fieldCategory":"none","format":"none","type":"number","fieldType":"default","minimum":0},"proofOfException":{"bioAttributes":[],"fieldCategory":"evidence","format":"none","fieldType":"default","$ref":"#\/definitions\/documentType"},"phone":{"bioAttributes":[],"validators":[{"validator":"^[+]*([0-9]{1})([0-9]{9})$","arguments":[],"type":"regex"}],"fieldCategory":"pvt","format":"none","type":"string","fieldType":"default"},"introducerName":{"bioAttributes":[],"fieldCategory":"evidence","format":"none","fieldType":"default","$ref":"#\/definitions\/simpleType"},"proofOfRelationship":{"bioAttributes":[],"fieldCategory":"pvt","format":"none","fieldType":"default","$ref":"#\/definitions\/documentType"},"UIN":{"bioAttributes":[],"fieldCategory":"none","format":"none","type":"string","fieldType":"default"},"region":{"bioAttributes":[],"validators":[{"validator":"^(?=.{0,50}$).*","arguments":[],"type":"regex"}],"fieldCategory":"pvt","format":"none","fieldType":"default","$ref":"#\/definitions\/simpleType"}}}}}</t>
   </si>
   <si>
     <t xml:space="preserve">PUBLISHED</t>
@@ -208,8 +208,8 @@
   </sheetPr>
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C15" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F30" activeCellId="0" sqref="F30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/mosip_master/xlsx/identity_schema.xlsx
+++ b/mosip_master/xlsx/identity_schema.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kames\IdeaProjects\mosip-data\mosip_master\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New folder (2)\masterdata\masterdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA486A0-4016-4BD7-9AA3-56B98C58C442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F58E8DF6-7372-4BD7-BBD7-9254ACC736A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>lang_code</t>
   </si>
@@ -79,450 +79,452 @@
   </si>
   <si>
     <t>{
-	"$schema": "http:\/\/json-schema.org\/draft-07\/schema#",
-	"description": "MOSIP Sample identity",
-	"additionalProperties": false,
-	"title": "MOSIP identity",
-	"type": "object",
-	"definitions": {
-		"simpleType": {
-			"uniqueItems": true,
-			"additionalItems": false,
-			"type": "array",
-			"items": {
-				"additionalProperties": false,
-				"type": "object",
-				"required": [
-					"language",
-					"value"
-				],
-				"properties": {
-					"language": {
-						"type": "string"
-					},
-					"value": {
-						"type": "string"
-					}
-				}
-			}
-		},
-		"documentType": {
-			"additionalProperties": false,
-			"type": "object",
-			"properties": {
-				"format": {
-					"type": "string"
-				},
-				"type": {
-					"type": "string"
-				},
-				"value": {
-					"type": "string"
-				},
-				"refNumber": {
-					"type": [
-						"string",
-						"null"
-					]
-				}
-			}
-		},
-		"biometricsType": {
-			"additionalProperties": false,
-			"type": "object",
-			"properties": {
-				"format": {
-					"type": "string"
-				},
-				"version": {
-					"type": "number",
-					"minimum": 0
-				},
-				"value": {
-					"type": "string"
-				}
-			}
-		}
-	},
-	"properties": {
-		"identity": {
-			"additionalProperties": false,
-			"type": "object",
-			"required": [
-				"IDSchemaVersion",
-				"fullName",
-				"dateOfBirth",
-				"gender",
-				"addressLine1",
-				"addressLine2",
-				"addressLine3",
-				"region",
-				"province",
-				"city",
-				"zone",
-				"postalCode",
-				"phone",
-				"email",
-				"proofOfIdentity",
-				"individualBiometrics"
-			],
-			"properties": {
-				"proofOfAddress": {
-					"bioAttributes": [
-					],
-					"fieldCategory": "pvt",
-					"format": "none",
-					"fieldType": "default",
-					"$ref": "#\/definitions\/documentType"
-				},
-				"gender": {
-					"bioAttributes": [
-					],
-					"fieldCategory": "pvt",
-					"format": "",
-					"fieldType": "default",
-					"$ref": "#\/definitions\/simpleType"
-				},
-				"city": {
-					"bioAttributes": [
-					],
-					"validators": [{
-						"validator": "^(?=.{0,50}$).*",
-						"arguments": [
-						],
-						"type": "regex"
-					}],
-					"fieldCategory": "pvt",
-					"format": "none",
-					"fieldType": "default",
-					"$ref": "#\/definitions\/simpleType"
-				},
-				"postalCode": {
-					"bioAttributes": [
-					],
-					"validators": [{
-						"validator": "^[(?i)A-Z0-9]{5}$|^NA$",
-						"arguments": [
-						],
-						"type": "regex"
-					}],
-					"fieldCategory": "pvt",
-					"format": "none",
-					"type": "string",
-					"fieldType": "default"
-				},
-				"proofOfException-1": {
-					"bioAttributes": [
-					],
-					"fieldCategory": "evidence",
-					"format": "none",
-					"fieldType": "default",
-					"$ref": "#\/definitions\/documentType"
-				},
-				"referenceIdentityNumber": {
-					"bioAttributes": [
-					],
-					"validators": [{
-						"validator": "^([0-9]{10,30})$",
-						"arguments": [
-						],
-						"type": "regex"
-					}],
-					"fieldCategory": "pvt",
-					"format": "kyc",
-					"type": "string",
-					"fieldType": "default"
-				},
-				"individualBiometrics": {
-					"bioAttributes": [
-						"leftEye",
-						"rightEye",
-						"rightIndex",
-						"rightLittle",
-						"rightRing",
-						"rightMiddle",
-						"leftIndex",
-						"leftLittle",
-						"leftRing",
-						"leftMiddle",
-						"leftThumb",
-						"rightThumb",
-						"face"
-					],
-					"fieldCategory": "pvt",
-					"format": "none",
-					"fieldType": "default",
-					"$ref": "#\/definitions\/biometricsType"
-				},
-				"province": {
-					"bioAttributes": [
-					],
-					"validators": [{
-						"validator": "^(?=.{0,50}$).*",
-						"arguments": [
-						],
-						"type": "regex"
-					}],
-					"fieldCategory": "pvt",
-					"format": "none",
-					"fieldType": "default",
-					"$ref": "#\/definitions\/simpleType"
-				},
-				"zone": {
-					"bioAttributes": [
-					],
-					"fieldCategory": "pvt",
-					"format": "none",
-					"fieldType": "default",
-					"$ref": "#\/definitions\/simpleType"
-				},
-				"proofOfDateOfBirth": {
-					"bioAttributes": [
-					],
-					"fieldCategory": "pvt",
-					"format": "none",
-					"fieldType": "default",
-					"$ref": "#\/definitions\/documentType"
-				},
-				"addressLine1": {
-					"bioAttributes": [
-					],
-					"validators": [{
-						"validator": "^(?=.{0,50}$).*",
-						"arguments": [
-						],
-						"type": "regex"
-					}],
-					"fieldCategory": "pvt",
-					"format": "none",
-					"fieldType": "default",
-					"$ref": "#\/definitions\/simpleType"
-				},
-				"addressLine2": {
-					"bioAttributes": [
-					],
-					"validators": [{
-						"validator": "^(?=.{3,50}$).*",
-						"arguments": [
-						],
-						"type": "regex"
-					}],
-					"fieldCategory": "pvt",
-					"format": "none",
-					"fieldType": "default",
-					"$ref": "#\/definitions\/simpleType"
-				},
-				"residenceStatus": {
-					"bioAttributes": [
-					],
-					"fieldCategory": "kyc",
-					"format": "none",
-					"fieldType": "default",
-					"$ref": "#\/definitions\/simpleType"
-				},
-				"addressLine3": {
-					"bioAttributes": [
-					],
-					"validators": [{
-						"validator": "^(?=.{3,50}$).*",
-						"arguments": [
-						],
-						"type": "regex"
-					}],
-					"fieldCategory": "pvt",
-					"format": "none",
-					"fieldType": "default",
-					"$ref": "#\/definitions\/simpleType"
-				},
-				"email": {
-					"bioAttributes": [
-					],
-					"validators": [{
-						"validator": "^[A-Za-z0-9_\\-]+(\\.[A-Za-z0-9_]+)*@[A-Za-z0-9_-]+(\\.[A-Za-z0-9_]+)*(\\.[a-zA-Z]{2,})$",
-						"arguments": [
-						],
-						"type": "regex"
-					}],
-					"fieldCategory": "pvt",
-					"format": "none",
-					"type": "string",
-					"fieldType": "default"
-				},
-				"introducerRID": {
-					"bioAttributes": [
-					],
-					"fieldCategory": "evidence",
-					"format": "none",
-					"type": "string",
-					"fieldType": "default"
-				},
-				"introducerBiometrics": {
-					"bioAttributes": [
-						"leftEye",
-						"rightEye",
-						"rightIndex",
-						"rightLittle",
-						"rightRing",
-						"rightMiddle",
-						"leftIndex",
-						"leftLittle",
-						"leftRing",
-						"leftMiddle",
-						"leftThumb",
-						"rightThumb",
-						"face"
-					],
-					"fieldCategory": "pvt",
-					"format": "none",
-					"fieldType": "default",
-					"$ref": "#\/definitions\/biometricsType"
-				},
-				"fullName": {
-					"bioAttributes": [
-					],
-					"validators": [{
-						"validator": "^(?=.{3,50}$).*",
-						"arguments": [
-						],
-						"type": "regex"
-					}],
-					"fieldCategory": "pvt",
-					"format": "none",
-					"fieldType": "default",
-					"$ref": "#\/definitions\/simpleType"
-				},
-				"dateOfBirth": {
-					"bioAttributes": [
-					],
-					"validators": [{
-						"validator": "^(1869|18[7-9][0-9]|19[0-9][0-9]|20[0-9][0-9])\/([0][1-9]|1[0-2])\/([0][1-9]|[1-2][0-9]|3[01])$",
-						"arguments": [
-						],
-						"type": "regex"
-					}],
-					"fieldCategory": "pvt",
-					"format": "none",
-					"type": "string",
-					"fieldType": "default"
-				},
-				"individualAuthBiometrics": {
-					"bioAttributes": [
-						"leftEye",
-						"rightEye",
-						"rightIndex",
-						"rightLittle",
-						"rightRing",
-						"rightMiddle",
-						"leftIndex",
-						"leftLittle",
-						"leftRing",
-						"leftMiddle",
-						"leftThumb",
-						"rightThumb",
-						"face"
-					],
-					"fieldCategory": "pvt",
-					"format": "none",
-					"fieldType": "default",
-					"$ref": "#\/definitions\/biometricsType"
-				},
-				"introducerUIN": {
-					"bioAttributes": [
-					],
-					"fieldCategory": "evidence",
-					"format": "none",
-					"type": "string",
-					"fieldType": "default"
-				},
-				"proofOfIdentity": {
-					"bioAttributes": [
-					],
-					"fieldCategory": "pvt",
-					"format": "none",
-					"fieldType": "default",
-					"$ref": "#\/definitions\/documentType"
-				},
-				"IDSchemaVersion": {
-					"bioAttributes": [
-					],
-					"fieldCategory": "none",
-					"format": "none",
-					"type": "number",
-					"fieldType": "default",
-					"minimum": 0
-				},
-				"proofOfException": {
-					"bioAttributes": [
-					],
-					"fieldCategory": "evidence",
-					"format": "none",
-					"fieldType": "default",
-					"$ref": "#\/definitions\/documentType"
-				},
-				"phone": {
-					"bioAttributes": [
-					],
-					"validators": [{
-						"validator": "^[+]*([0-9]{1})([0-9]{9})$",
-						"arguments": [
-						],
-						"type": "regex"
-					}],
-					"fieldCategory": "pvt",
-					"format": "none",
-					"type": "string",
-					"fieldType": "default"
-				},
-				"introducerName": {
-					"bioAttributes": [
-					],
-					"fieldCategory": "evidence",
-					"format": "none",
-					"fieldType": "default",
-					"$ref": "#\/definitions\/simpleType"
-				},
-				"proofOfRelationship": {
-					"bioAttributes": [
-					],
-					"fieldCategory": "pvt",
-					"format": "none",
-					"fieldType": "default",
-					"$ref": "#\/definitions\/documentType"
-				},
-				"UIN": {
-					"bioAttributes": [
-					],
-					"fieldCategory": "none",
-					"format": "none",
-					"type": "string",
-					"fieldType": "default"
-				},
-				"preferredLang": {
-					"bioAttributes": [
-					],
-					"fieldCategory": "pvt",
-					"format": "none",
-					"type": "string",
-					"fieldType": "dynamic"
-				},
-				"region": {
-					"bioAttributes": [
-					],
-					"validators": [{
-						"validator": "^(?=.{0,50}$).*",
-						"arguments": [
-						],
-						"type": "regex"
-					}],
-					"fieldCategory": "pvt",
-					"format": "none",
-					"fieldType": "default",
-					"$ref": "#\/definitions\/simpleType"
-				}
-			}
-		}
-	}
+  "$schema": "http://json-schema.org/draft-07/schema#",
+  "description": "MOSIP Sample identity",
+  "additionalProperties": false,
+  "title": "MOSIP identity",
+  "type": "object",
+  "definitions": {
+    "simpleType": {
+      "uniqueItems": true,
+      "additionalItems": false,
+      "type": "array",
+      "items": {
+        "additionalProperties": false,
+        "type": "object",
+        "required": [
+          "language",
+          "value"
+        ],
+        "properties": {
+          "language": {
+            "type": "string"
+          },
+          "value": {
+            "type": "string"
+          }
+        }
+      }
+    },
+    "documentType": {
+      "additionalProperties": false,
+      "type": "object",
+      "properties": {
+        "format": {
+          "type": "string"
+        },
+        "type": {
+          "type": "string"
+        },
+        "value": {
+          "type": "string"
+        },
+        "refNumber": {
+          "type": [
+            "string",
+            "null"
+          ]
+        }
+      }
+    },
+    "biometricsType": {
+      "additionalProperties": false,
+      "type": "object",
+      "properties": {
+        "format": {
+          "type": "string"
+        },
+        "version": {
+          "type": "number",
+          "minimum": 0
+        },
+        "value": {
+          "type": "string"
+        }
+      }
+    }
+  },
+  "properties": {
+    "identity": {
+      "additionalProperties": false,
+      "type": "object",
+      "required": [
+        "IDSchemaVersion",
+        "firstName",
+        "lastName",
+        "gender",
+        "dateOfBirth",
+        "addressLine1",
+        "addressLine2",
+        "phone",
+        "city",
+        "state",
+        "postalCode",
+        "country",
+        "individualBiometrics",
+        "documents",
+        "proofOfAddress",
+        "proofOfIdentity"
+      ],
+      "properties": {
+        "proofOfAddress": {
+          "bioAttributes": [],
+          "fieldCategory": "pvt",
+          "format": "none",
+          "fieldType": "default",
+          "$ref": "#/definitions/documentType"
+        },
+        "gender": {
+          "bioAttributes": [],
+          "fieldCategory": "pvt",
+          "format": "",
+          "fieldType": "default",
+          "$ref": "#/definitions/simpleType"
+        },
+        "city": {
+          "bioAttributes": [],
+          "validators": [
+            {
+              "validator": "^(?=.{0,50}$).*",
+              "arguments": [],
+              "type": "regex"
+            }
+          ],
+          "fieldCategory": "pvt",
+          "format": "none",
+          "fieldType": "default",
+          "$ref": "#/definitions/simpleType"
+        },
+        "postalCode": {
+          "bioAttributes": [],
+          "validators": [
+            {
+              "validator": "^[(?i)A-Z0-9]{5}$|^NA$",
+              "arguments": [],
+              "type": "regex"
+            }
+          ],
+          "fieldCategory": "pvt",
+          "format": "none",
+          "type": "string",
+          "fieldType": "default"
+        },
+        "proofOfException-1": {
+          "bioAttributes": [],
+          "fieldCategory": "evidence",
+          "format": "none",
+          "fieldType": "default",
+          "$ref": "#/definitions/documentType"
+        },
+        "referenceIdentityNumber": {
+          "bioAttributes": [],
+          "validators": [
+            {
+              "validator": "^([0-9]{10,30})$",
+              "arguments": [],
+              "type": "regex"
+            }
+          ],
+          "fieldCategory": "pvt",
+          "format": "kyc",
+          "type": "string",
+          "fieldType": "default"
+        },
+        "individualBiometrics": {
+          "bioAttributes": [
+            "leftEye",
+            "rightEye",
+            "rightIndex",
+            "rightLittle",
+            "rightRing",
+            "rightMiddle",
+            "leftIndex",
+            "leftLittle",
+            "leftRing",
+            "leftMiddle",
+            "leftThumb",
+            "rightThumb",
+            "face"
+          ],
+          "fieldCategory": "pvt",
+          "format": "none",
+          "fieldType": "default",
+          "$ref": "#/definitions/biometricsType"
+        },
+        "province": {
+          "bioAttributes": [],
+          "validators": [
+            {
+              "validator": "^(?=.{0,50}$).*",
+              "arguments": [],
+              "type": "regex"
+            }
+          ],
+          "fieldCategory": "pvt",
+          "format": "none",
+          "fieldType": "default",
+          "$ref": "#/definitions/simpleType"
+        },
+        "state": {
+          "bioAttributes": [],
+          "fieldCategory": "pvt",
+          "format": "none",
+          "fieldType": "default",
+          "$ref": "#/definitions/simpleType"
+        },
+        "proofOfDateOfBirth": {
+          "bioAttributes": [],
+          "fieldCategory": "pvt",
+          "format": "none",
+          "fieldType": "default",
+          "$ref": "#/definitions/documentType"
+        },
+        "addressLine1": {
+          "bioAttributes": [],
+          "validators": [
+            {
+              "validator": "^(?=.{0,50}$).*",
+              "arguments": [],
+              "type": "regex"
+            }
+          ],
+          "fieldCategory": "pvt",
+          "format": "none",
+          "fieldType": "default",
+          "$ref": "#/definitions/simpleType"
+        },
+        "addressLine2": {
+          "bioAttributes": [],
+          "validators": [
+            {
+              "validator": "^(?=.{3,50}$).*",
+              "arguments": [],
+              "type": "regex"
+            }
+          ],
+          "fieldCategory": "pvt",
+          "format": "none",
+          "fieldType": "default",
+          "$ref": "#/definitions/simpleType"
+        },
+        "residenceStatus": {
+          "bioAttributes": [],
+          "fieldCategory": "kyc",
+          "format": "none",
+          "fieldType": "default",
+          "$ref": "#/definitions/simpleType"
+        },
+        "addressLine3": {
+          "bioAttributes": [],
+          "validators": [
+            {
+              "validator": "^(?=.{3,50}$).*",
+              "arguments": [],
+              "type": "regex"
+            }
+          ],
+          "fieldCategory": "pvt",
+          "format": "none",
+          "fieldType": "default",
+          "$ref": "#/definitions/simpleType"
+        },
+        "email": {
+          "bioAttributes": [],
+          "validators": [
+            {
+              "validator": "^[A-Za-z0-9_\\-]+(\\.[A-Za-z0-9_]+)*@[A-Za-z0-9_-]+(\\.[A-Za-z0-9_]+)*(\\.[a-zA-Z]{2,})$",
+              "arguments": [],
+              "type": "regex"
+            }
+          ],
+          "fieldCategory": "pvt",
+          "format": "none",
+          "type": "string",
+          "fieldType": "default"
+        },
+        "introducerRID": {
+          "bioAttributes": [],
+          "fieldCategory": "evidence",
+          "format": "none",
+          "type": "string",
+          "fieldType": "default"
+        },
+        "introducerBiometrics": {
+          "bioAttributes": [
+            "leftEye",
+            "rightEye",
+            "rightIndex",
+            "rightLittle",
+            "rightRing",
+            "rightMiddle",
+            "leftIndex",
+            "leftLittle",
+            "leftRing",
+            "leftMiddle",
+            "leftThumb",
+            "rightThumb",
+            "face"
+          ],
+          "fieldCategory": "pvt",
+          "format": "none",
+          "fieldType": "default",
+          "$ref": "#/definitions/biometricsType"
+        },
+        "firstName": {
+          "bioAttributes": [],
+          "validators": [
+            {
+              "validator": "^(?=.{4,50}$).*",
+              "arguments": [],
+              "type": "regex"
+            }
+          ],
+          "fieldCategory": "pvt",
+          "format": "none",
+          "fieldType": "default",
+          "$ref": "#/definitions/simpleType"
+        },
+        "lastName": {
+          "bioAttributes": [],
+          "validators": [
+            {
+              "validator": "^(?=.{3,50}$).*",
+              "arguments": [],
+              "type": "regex"
+            }
+          ],
+          "fieldCategory": "pvt",
+          "format": "none",
+          "fieldType": "default",
+          "$ref": "#/definitions/simpleType"
+        },
+        "dateOfBirth": {
+          "bioAttributes": [],
+          "validators": [
+            {
+              "validator": "^(1869|18[7-9][0-9]|19[0-9][0-9]|20[0-9][0-9])/([0][1-9]|1[0-2])/([0][1-9]|[1-2][0-9]|3[01])$",
+              "arguments": [],
+              "type": "regex"
+            }
+          ],
+          "fieldCategory": "pvt",
+          "format": "none",
+          "type": "string",
+          "fieldType": "default"
+        },
+        "individualAuthBiometrics": {
+          "bioAttributes": [
+            "leftEye",
+            "rightEye",
+            "rightIndex",
+            "rightLittle",
+            "rightRing",
+            "rightMiddle",
+            "leftIndex",
+            "leftLittle",
+            "leftRing",
+            "leftMiddle",
+            "leftThumb",
+            "rightThumb",
+            "face"
+          ],
+          "fieldCategory": "pvt",
+          "format": "none",
+          "fieldType": "default",
+          "$ref": "#/definitions/biometricsType"
+        },
+        "introducerUIN": {
+          "bioAttributes": [],
+          "fieldCategory": "evidence",
+          "format": "none",
+          "type": "string",
+          "fieldType": "default"
+        },
+        "proofOfIdentity": {
+          "bioAttributes": [],
+          "fieldCategory": "pvt",
+          "format": "none",
+          "fieldType": "default",
+          "$ref": "#/definitions/documentType"
+        },
+        "IDSchemaVersion": {
+          "bioAttributes": [],
+          "fieldCategory": "none",
+          "format": "none",
+          "type": "number",
+          "fieldType": "default",
+          "minimum": 0
+        },
+        "proofOfException": {
+          "bioAttributes": [],
+          "fieldCategory": "evidence",
+          "format": "none",
+          "fieldType": "default",
+          "$ref": "#/definitions/documentType"
+        },
+        "phone": {
+          "bioAttributes": [],
+          "validators": [
+            {
+              "validator": "^[+]*([0-9]{1})([0-9]{9})$",
+              "arguments": [],
+              "type": "regex"
+            }
+          ],
+          "fieldCategory": "pvt",
+          "format": "none",
+          "type": "string",
+          "fieldType": "default"
+        },
+        "introducerName": {
+          "bioAttributes": [],
+          "fieldCategory": "evidence",
+          "format": "none",
+          "fieldType": "default",
+          "$ref": "#/definitions/simpleType"
+        },
+        "proofOfRelationship": {
+          "bioAttributes": [],
+          "fieldCategory": "pvt",
+          "format": "none",
+          "fieldType": "default",
+          "$ref": "#/definitions/documentType"
+        },
+        "UIN": {
+          "bioAttributes": [],
+          "fieldCategory": "none",
+          "format": "none",
+          "type": "string",
+          "fieldType": "default"
+        },
+        "preferredLang": {
+          "bioAttributes": [],
+          "fieldCategory": "pvt",
+          "format": "none",
+          "type": "string",
+          "fieldType": "dynamic"
+        },
+        "country": {
+          "bioAttributes": [],
+          "validators": [
+            {
+              "validator": [],
+              "arguments": [],
+              "type": "regex"
+            }
+          ],
+          "fieldCategory": "pvt",
+          "format": "none",
+          "fieldType": "default",
+          "$ref": "#/definitions/simpleType"
+        }
+      }
+    }
+  }
 }</t>
+  </si>
+  <si>
+    <t>1002</t>
   </si>
 </sst>
 </file>
@@ -912,8 +914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -921,8 +923,8 @@
     <col min="1" max="1" width="8.453125" style="1"/>
     <col min="2" max="2" width="8.453125" style="2"/>
     <col min="3" max="3" width="11.54296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.453125" style="1"/>
-    <col min="5" max="5" width="15.453125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.54296875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.453125" style="1" customWidth="1"/>
     <col min="6" max="6" width="53.7265625" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.7265625" style="1" customWidth="1"/>
     <col min="8" max="8" width="13.453125" style="2" customWidth="1"/>
@@ -968,8 +970,8 @@
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2">
-        <v>1001</v>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="C2" s="1">
         <v>0.1</v>

--- a/mosip_master/xlsx/identity_schema.xlsx
+++ b/mosip_master/xlsx/identity_schema.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kames\IdeaProjects\mosip-data\mosip_master\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mosip\CIV\CODE\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA486A0-4016-4BD7-9AA3-56B98C58C442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA4EA13-E505-48AE-943A-9EB5BCBEA458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -57,9 +57,6 @@
     <t>is_active</t>
   </si>
   <si>
-    <t>eng</t>
-  </si>
-  <si>
     <t>Mosip Identity</t>
   </si>
   <si>
@@ -79,450 +76,412 @@
   </si>
   <si>
     <t>{
-	"$schema": "http:\/\/json-schema.org\/draft-07\/schema#",
-	"description": "MOSIP Sample identity",
-	"additionalProperties": false,
-	"title": "MOSIP identity",
-	"type": "object",
-	"definitions": {
-		"simpleType": {
-			"uniqueItems": true,
-			"additionalItems": false,
-			"type": "array",
-			"items": {
-				"additionalProperties": false,
-				"type": "object",
-				"required": [
-					"language",
-					"value"
-				],
-				"properties": {
-					"language": {
-						"type": "string"
-					},
-					"value": {
-						"type": "string"
-					}
-				}
-			}
-		},
-		"documentType": {
-			"additionalProperties": false,
-			"type": "object",
-			"properties": {
-				"format": {
-					"type": "string"
-				},
-				"type": {
-					"type": "string"
-				},
-				"value": {
-					"type": "string"
-				},
-				"refNumber": {
-					"type": [
-						"string",
-						"null"
-					]
-				}
-			}
-		},
-		"biometricsType": {
-			"additionalProperties": false,
-			"type": "object",
-			"properties": {
-				"format": {
-					"type": "string"
-				},
-				"version": {
-					"type": "number",
-					"minimum": 0
-				},
-				"value": {
-					"type": "string"
-				}
-			}
-		}
-	},
-	"properties": {
-		"identity": {
-			"additionalProperties": false,
-			"type": "object",
-			"required": [
-				"IDSchemaVersion",
-				"fullName",
-				"dateOfBirth",
-				"gender",
-				"addressLine1",
-				"addressLine2",
-				"addressLine3",
-				"region",
-				"province",
-				"city",
-				"zone",
-				"postalCode",
-				"phone",
-				"email",
-				"proofOfIdentity",
-				"individualBiometrics"
-			],
-			"properties": {
-				"proofOfAddress": {
-					"bioAttributes": [
-					],
-					"fieldCategory": "pvt",
-					"format": "none",
-					"fieldType": "default",
-					"$ref": "#\/definitions\/documentType"
-				},
-				"gender": {
-					"bioAttributes": [
-					],
-					"fieldCategory": "pvt",
-					"format": "",
-					"fieldType": "default",
-					"$ref": "#\/definitions\/simpleType"
-				},
-				"city": {
-					"bioAttributes": [
-					],
-					"validators": [{
-						"validator": "^(?=.{0,50}$).*",
-						"arguments": [
-						],
-						"type": "regex"
-					}],
-					"fieldCategory": "pvt",
-					"format": "none",
-					"fieldType": "default",
-					"$ref": "#\/definitions\/simpleType"
-				},
-				"postalCode": {
-					"bioAttributes": [
-					],
-					"validators": [{
-						"validator": "^[(?i)A-Z0-9]{5}$|^NA$",
-						"arguments": [
-						],
-						"type": "regex"
-					}],
-					"fieldCategory": "pvt",
-					"format": "none",
-					"type": "string",
-					"fieldType": "default"
-				},
-				"proofOfException-1": {
-					"bioAttributes": [
-					],
-					"fieldCategory": "evidence",
-					"format": "none",
-					"fieldType": "default",
-					"$ref": "#\/definitions\/documentType"
-				},
-				"referenceIdentityNumber": {
-					"bioAttributes": [
-					],
-					"validators": [{
-						"validator": "^([0-9]{10,30})$",
-						"arguments": [
-						],
-						"type": "regex"
-					}],
-					"fieldCategory": "pvt",
-					"format": "kyc",
-					"type": "string",
-					"fieldType": "default"
-				},
-				"individualBiometrics": {
-					"bioAttributes": [
-						"leftEye",
-						"rightEye",
-						"rightIndex",
-						"rightLittle",
-						"rightRing",
-						"rightMiddle",
-						"leftIndex",
-						"leftLittle",
-						"leftRing",
-						"leftMiddle",
-						"leftThumb",
-						"rightThumb",
-						"face"
-					],
-					"fieldCategory": "pvt",
-					"format": "none",
-					"fieldType": "default",
-					"$ref": "#\/definitions\/biometricsType"
-				},
-				"province": {
-					"bioAttributes": [
-					],
-					"validators": [{
-						"validator": "^(?=.{0,50}$).*",
-						"arguments": [
-						],
-						"type": "regex"
-					}],
-					"fieldCategory": "pvt",
-					"format": "none",
-					"fieldType": "default",
-					"$ref": "#\/definitions\/simpleType"
-				},
-				"zone": {
-					"bioAttributes": [
-					],
-					"fieldCategory": "pvt",
-					"format": "none",
-					"fieldType": "default",
-					"$ref": "#\/definitions\/simpleType"
-				},
-				"proofOfDateOfBirth": {
-					"bioAttributes": [
-					],
-					"fieldCategory": "pvt",
-					"format": "none",
-					"fieldType": "default",
-					"$ref": "#\/definitions\/documentType"
-				},
-				"addressLine1": {
-					"bioAttributes": [
-					],
-					"validators": [{
-						"validator": "^(?=.{0,50}$).*",
-						"arguments": [
-						],
-						"type": "regex"
-					}],
-					"fieldCategory": "pvt",
-					"format": "none",
-					"fieldType": "default",
-					"$ref": "#\/definitions\/simpleType"
-				},
-				"addressLine2": {
-					"bioAttributes": [
-					],
-					"validators": [{
-						"validator": "^(?=.{3,50}$).*",
-						"arguments": [
-						],
-						"type": "regex"
-					}],
-					"fieldCategory": "pvt",
-					"format": "none",
-					"fieldType": "default",
-					"$ref": "#\/definitions\/simpleType"
-				},
-				"residenceStatus": {
-					"bioAttributes": [
-					],
-					"fieldCategory": "kyc",
-					"format": "none",
-					"fieldType": "default",
-					"$ref": "#\/definitions\/simpleType"
-				},
-				"addressLine3": {
-					"bioAttributes": [
-					],
-					"validators": [{
-						"validator": "^(?=.{3,50}$).*",
-						"arguments": [
-						],
-						"type": "regex"
-					}],
-					"fieldCategory": "pvt",
-					"format": "none",
-					"fieldType": "default",
-					"$ref": "#\/definitions\/simpleType"
-				},
-				"email": {
-					"bioAttributes": [
-					],
-					"validators": [{
-						"validator": "^[A-Za-z0-9_\\-]+(\\.[A-Za-z0-9_]+)*@[A-Za-z0-9_-]+(\\.[A-Za-z0-9_]+)*(\\.[a-zA-Z]{2,})$",
-						"arguments": [
-						],
-						"type": "regex"
-					}],
-					"fieldCategory": "pvt",
-					"format": "none",
-					"type": "string",
-					"fieldType": "default"
-				},
-				"introducerRID": {
-					"bioAttributes": [
-					],
-					"fieldCategory": "evidence",
-					"format": "none",
-					"type": "string",
-					"fieldType": "default"
-				},
-				"introducerBiometrics": {
-					"bioAttributes": [
-						"leftEye",
-						"rightEye",
-						"rightIndex",
-						"rightLittle",
-						"rightRing",
-						"rightMiddle",
-						"leftIndex",
-						"leftLittle",
-						"leftRing",
-						"leftMiddle",
-						"leftThumb",
-						"rightThumb",
-						"face"
-					],
-					"fieldCategory": "pvt",
-					"format": "none",
-					"fieldType": "default",
-					"$ref": "#\/definitions\/biometricsType"
-				},
-				"fullName": {
-					"bioAttributes": [
-					],
-					"validators": [{
-						"validator": "^(?=.{3,50}$).*",
-						"arguments": [
-						],
-						"type": "regex"
-					}],
-					"fieldCategory": "pvt",
-					"format": "none",
-					"fieldType": "default",
-					"$ref": "#\/definitions\/simpleType"
-				},
-				"dateOfBirth": {
-					"bioAttributes": [
-					],
-					"validators": [{
-						"validator": "^(1869|18[7-9][0-9]|19[0-9][0-9]|20[0-9][0-9])\/([0][1-9]|1[0-2])\/([0][1-9]|[1-2][0-9]|3[01])$",
-						"arguments": [
-						],
-						"type": "regex"
-					}],
-					"fieldCategory": "pvt",
-					"format": "none",
-					"type": "string",
-					"fieldType": "default"
-				},
-				"individualAuthBiometrics": {
-					"bioAttributes": [
-						"leftEye",
-						"rightEye",
-						"rightIndex",
-						"rightLittle",
-						"rightRing",
-						"rightMiddle",
-						"leftIndex",
-						"leftLittle",
-						"leftRing",
-						"leftMiddle",
-						"leftThumb",
-						"rightThumb",
-						"face"
-					],
-					"fieldCategory": "pvt",
-					"format": "none",
-					"fieldType": "default",
-					"$ref": "#\/definitions\/biometricsType"
-				},
-				"introducerUIN": {
-					"bioAttributes": [
-					],
-					"fieldCategory": "evidence",
-					"format": "none",
-					"type": "string",
-					"fieldType": "default"
-				},
-				"proofOfIdentity": {
-					"bioAttributes": [
-					],
-					"fieldCategory": "pvt",
-					"format": "none",
-					"fieldType": "default",
-					"$ref": "#\/definitions\/documentType"
-				},
-				"IDSchemaVersion": {
-					"bioAttributes": [
-					],
-					"fieldCategory": "none",
-					"format": "none",
-					"type": "number",
-					"fieldType": "default",
-					"minimum": 0
-				},
-				"proofOfException": {
-					"bioAttributes": [
-					],
-					"fieldCategory": "evidence",
-					"format": "none",
-					"fieldType": "default",
-					"$ref": "#\/definitions\/documentType"
-				},
-				"phone": {
-					"bioAttributes": [
-					],
-					"validators": [{
-						"validator": "^[+]*([0-9]{1})([0-9]{9})$",
-						"arguments": [
-						],
-						"type": "regex"
-					}],
-					"fieldCategory": "pvt",
-					"format": "none",
-					"type": "string",
-					"fieldType": "default"
-				},
-				"introducerName": {
-					"bioAttributes": [
-					],
-					"fieldCategory": "evidence",
-					"format": "none",
-					"fieldType": "default",
-					"$ref": "#\/definitions\/simpleType"
-				},
-				"proofOfRelationship": {
-					"bioAttributes": [
-					],
-					"fieldCategory": "pvt",
-					"format": "none",
-					"fieldType": "default",
-					"$ref": "#\/definitions\/documentType"
-				},
-				"UIN": {
-					"bioAttributes": [
-					],
-					"fieldCategory": "none",
-					"format": "none",
-					"type": "string",
-					"fieldType": "default"
-				},
-				"preferredLang": {
-					"bioAttributes": [
-					],
-					"fieldCategory": "pvt",
-					"format": "none",
-					"type": "string",
-					"fieldType": "dynamic"
-				},
-				"region": {
-					"bioAttributes": [
-					],
-					"validators": [{
-						"validator": "^(?=.{0,50}$).*",
-						"arguments": [
-						],
-						"type": "regex"
-					}],
-					"fieldCategory": "pvt",
-					"format": "none",
-					"fieldType": "default",
-					"$ref": "#\/definitions\/simpleType"
-				}
-			}
-		}
-	}
+    "$schema": "http://json-schema.org/draft-07/schema#",
+    "description": "MOSIP Sample identity",
+    "additionalProperties": false,
+    "title": "MOSIP identity",
+    "type": "object",
+    "definitions": {
+        "simpleType": {
+            "uniqueItems": true,
+            "additionalItems": false,
+            "type": "array",
+            "items": {
+                "additionalProperties": false,
+                "type": "object",
+                "required": [
+                    "language",
+                    "value"
+                ],
+                "properties": {
+                    "language": {
+                        "type": "string"
+                    },
+                    "value": {
+                        "type": "string"
+                    }
+                }
+            }
+        },
+        "documentType": {
+            "additionalProperties": false,
+            "type": "object",
+            "properties": {
+                "format": {
+                    "type": "string"
+                },
+                "type": {
+                    "type": "string"
+                },
+                "value": {
+                    "type": "string"
+                },
+                "refNumber": {
+                    "type": [
+                        "string",
+                        "null"
+                    ]
+                }
+            }
+        },
+        "biometricsType": {
+            "additionalProperties": false,
+            "type": "object",
+            "properties": {
+                "format": {
+                    "type": "string"
+                },
+                "version": {
+                    "type": "number",
+                    "minimum": 0
+                },
+                "value": {
+                    "type": "string"
+                }
+            }
+        }
+    },
+    "properties": {
+        "identity": {
+            "additionalProperties": false,
+            "type": "object",
+            "required": [
+                "IDSchemaVersion",
+                "firstName",
+                "lastName",
+                "dateOfBirth",
+                "gender",
+                "region",
+                "departement",
+                "chefLieu",
+                "sousPrefecture",
+                "countryOfCitizenship",
+                "individualBiometrics"
+            ],
+            "properties": {
+                "proofOfAddress": {
+                    "bioAttributes": [],
+                    "fieldCategory": "pvt",
+                    "format": "none",
+                    "fieldType": "default",
+                    "$ref": "#/definitions/documentType"
+                },
+                "gender": {
+                    "bioAttributes": [],
+                    "fieldCategory": "pvt",
+                    "format": "",
+                    "fieldType": "default",
+                    "$ref": "#/definitions/simpleType"
+                },
+                "region": {
+                    "bioAttributes": [],
+                    "fieldCategory": "pvt",
+                    "format": "none",
+                    "fieldType": "default",
+                    "$ref": "#/definitions/simpleType"
+                },
+                "departement": {
+                    "bioAttributes": [],
+                    "fieldCategory": "pvt",
+                    "format": "none",
+                    "fieldType": "default",
+                    "$ref": "#/definitions/simpleType"
+                },
+                "chefLieu": {
+                    "bioAttributes": [],
+                    "fieldCategory": "pvt",
+                    "format": "none",
+                    "fieldType": "default",
+                    "$ref": "#/definitions/simpleType"
+                },
+                "sousPrefecture": {
+                    "bioAttributes": [],
+                    "fieldCategory": "pvt",
+                    "format": "none",
+                    "fieldType": "default",
+                    "$ref": "#/definitions/simpleType"
+                },
+                "commune": {
+                    "bioAttributes": [],
+                    "fieldCategory": "pvt",
+                    "format": "none",
+                    "fieldType": "default",
+                    "$ref": "#/definitions/simpleType"
+                },
+                "countryOfCitizenship": {
+                    "bioAttributes": [],
+                    "fieldCategory": "pvt",
+                    "format": "none",
+                    "fieldType": "default",
+                    "$ref": "#/definitions/simpleType"
+                },
+                "residenceStatus": {
+                    "bioAttributes": [],
+                    "fieldCategory": "kyc",
+                    "format": "none",
+                    "fieldType": "default",
+                    "$ref": "#/definitions/simpleType"
+                },
+                "proofOfException-1": {
+                    "bioAttributes": [],
+                    "fieldCategory": "evidence",
+                    "format": "none",
+                    "fieldType": "default",
+                    "$ref": "#/definitions/documentType"
+                },
+                "individualBiometrics": {
+                    "bioAttributes": [
+                        "leftEye",
+                        "rightEye",
+                        "rightIndex",
+                        "rightLittle",
+                        "rightRing",
+                        "rightMiddle",
+                        "leftIndex",
+                        "leftLittle",
+                        "leftRing",
+                        "leftMiddle",
+                        "leftThumb",
+                        "rightThumb",
+                        "face"
+                    ],
+                    "fieldCategory": "pvt",
+                    "format": "none",
+                    "fieldType": "default",
+                    "$ref": "#/definitions/biometricsType"
+                },
+                "proofOfDateOfBirth": {
+                    "bioAttributes": [],
+                    "fieldCategory": "pvt",
+                    "format": "none",
+                    "fieldType": "default",
+                    "$ref": "#/definitions/documentType"
+                },
+                "addressLine1": {
+                    "bioAttributes": [],
+                    "validators": [
+                        {
+                            "validator": "^(?=.{3,50}$).*",
+                            "arguments": [],
+                            "type": "regex"
+                        }
+                    ],
+                    "fieldCategory": "pvt",
+                    "format": "none",
+                    "fieldType": "default",
+                    "$ref": "#/definitions/simpleType"
+                },
+                "addressLine2": {
+                    "bioAttributes": [],
+                    "validators": [
+                        {
+                            "validator": "^(?=.{3,50}$).*",
+                            "arguments": [],
+                            "type": "regex"
+                        }
+                    ],
+                    "fieldCategory": "pvt",
+                    "format": "none",
+                    "fieldType": "default",
+                    "$ref": "#/definitions/simpleType"
+                },
+                "addressLine3": {
+                    "bioAttributes": [],
+                    "validators": [
+                        {
+                            "validator": "^(?=.{3,50}$).*",
+                            "arguments": [],
+                            "type": "regex"
+                        }
+                    ],
+                    "fieldCategory": "pvt",
+                    "format": "none",
+                    "fieldType": "default",
+                    "$ref": "#/definitions/simpleType"
+                },
+                "email": {
+                    "bioAttributes": [],
+                    "validators": [
+                        {
+                            "validator": "^[A-Za-z0-9_\\-]+(\\.[A-Za-z0-9_]+)*@[A-Za-z0-9_-]+(\\.[A-Za-z0-9_]+)*(\\.[a-zA-Z]{2,})$",
+                            "arguments": [],
+                            "type": "regex"
+                        }
+                    ],
+                    "fieldCategory": "pvt",
+                    "format": "none",
+                    "type": "string",
+                    "fieldType": "default"
+                },
+                "introducerRID": {
+                    "bioAttributes": [],
+                    "fieldCategory": "evidence",
+                    "format": "none",
+                    "type": "string",
+                    "fieldType": "default"
+                },
+                "introducerBiometrics": {
+                    "bioAttributes": [
+                        "leftEye",
+                        "rightEye",
+                        "rightIndex",
+                        "rightLittle",
+                        "rightRing",
+                        "rightMiddle",
+                        "leftIndex",
+                        "leftLittle",
+                        "leftRing",
+                        "leftMiddle",
+                        "leftThumb",
+                        "rightThumb",
+                        "face"
+                    ],
+                    "fieldCategory": "pvt",
+                    "format": "none",
+                    "fieldType": "default",
+                    "$ref": "#/definitions/biometricsType"
+                },
+                "firstName": {
+                    "bioAttributes": [],
+                    "validators": [
+                        {
+                            "validator": "^(?=.{2,50}$).*",
+                            "arguments": [],
+                            "type": "regex"
+                        }
+                    ],
+                    "fieldCategory": "pvt",
+                    "format": "none",
+                    "fieldType": "default",
+                    "$ref": "#/definitions/simpleType"
+                },
+                "lastName": {
+                    "bioAttributes": [],
+                    "validators": [
+                        {
+                            "validator": "^(?=.{2,50}$).*",
+                            "arguments": [],
+                            "type": "regex"
+                        }
+                    ],
+                    "fieldCategory": "pvt",
+                    "format": "none",
+                    "fieldType": "default",
+                    "$ref": "#/definitions/simpleType"
+                },
+                "dateOfBirth": {
+                    "bioAttributes": [],
+                    "validators": [
+                        {
+                            "validator": "^(1869|18[7-9][0-9]|19[0-9][0-9]|20[0-9][0-9])/([0][1-9]|1[0-2])/([0][1-9]|[1-2][0-9]|3[01])$",
+                            "arguments": [],
+                            "type": "regex"
+                        }
+                    ],
+                    "fieldCategory": "pvt",
+                    "format": "none",
+                    "type": "string",
+                    "fieldType": "default"
+                },
+                "individualAuthBiometrics": {
+                    "bioAttributes": [
+                        "leftEye",
+                        "rightEye",
+                        "rightIndex",
+                        "rightLittle",
+                        "rightRing",
+                        "rightMiddle",
+                        "leftIndex",
+                        "leftLittle",
+                        "leftRing",
+                        "leftMiddle",
+                        "leftThumb",
+                        "rightThumb",
+                        "face"
+                    ],
+                    "fieldCategory": "pvt",
+                    "format": "none",
+                    "fieldType": "default",
+                    "$ref": "#/definitions/biometricsType"
+                },
+                "introducerUIN": {
+                    "bioAttributes": [],
+                    "fieldCategory": "evidence",
+                    "format": "none",
+                    "type": "string",
+                    "fieldType": "default"
+                },
+                "proofOfIdentity": {
+                    "bioAttributes": [],
+                    "fieldCategory": "pvt",
+                    "format": "none",
+                    "fieldType": "default",
+                    "$ref": "#/definitions/documentType"
+                },
+                "IDSchemaVersion": {
+                    "bioAttributes": [],
+                    "fieldCategory": "none",
+                    "format": "none",
+                    "type": "number",
+                    "fieldType": "default",
+                    "minimum": 0
+                },
+                "proofOfException": {
+                    "bioAttributes": [],
+                    "fieldCategory": "evidence",
+                    "format": "none",
+                    "fieldType": "default",
+                    "$ref": "#/definitions/documentType"
+                },
+                "phone": {
+                    "bioAttributes": [],
+                    "validators": [
+                        {
+                            "validator": "^[+]*([0-9][0-9]{8,9})$",
+                            "arguments": [],
+                            "type": "regex"
+                        }
+                    ],
+                    "fieldCategory": "pvt",
+                    "format": "none",
+                    "type": "string",
+                    "fieldType": "default"
+                },
+                "introducerName": {
+                    "bioAttributes": [],
+                    "fieldCategory": "evidence",
+                    "format": "none",
+                    "fieldType": "default",
+                    "$ref": "#/definitions/simpleType"
+                },
+                "proofOfRelationship": {
+                    "bioAttributes": [],
+                    "fieldCategory": "pvt",
+                    "format": "none",
+                    "fieldType": "default",
+                    "$ref": "#/definitions/documentType"
+                },
+                "UIN": {
+                    "bioAttributes": [],
+                    "fieldCategory": "none",
+                    "format": "none",
+                    "type": "string",
+                    "fieldType": "default"
+                },
+                "preferredLang": {
+                    "bioAttributes": [],
+                    "fieldCategory": "pvt",
+                    "format": "none",
+                    "type": "string",
+                    "fieldType": "dynamic"
+                }
+            }
+        }
+    }
 }</t>
+  </si>
+  <si>
+    <t>fra</t>
   </si>
 </sst>
 </file>
@@ -912,8 +871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -966,7 +925,7 @@
     </row>
     <row r="2" spans="1:10" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2">
         <v>1001</v>
@@ -975,25 +934,25 @@
         <v>0.1</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/mosip_master/xlsx/identity_schema.xlsx
+++ b/mosip_master/xlsx/identity_schema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mosip\CIV\CODE\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA4EA13-E505-48AE-943A-9EB5BCBEA458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395A6B9F-034A-4BB4-9D37-FE72F0821BB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>TRUE</t>
+  </si>
+  <si>
+    <t>fra</t>
   </si>
   <si>
     <t>{
@@ -151,10 +154,10 @@
                 "lastName",
                 "dateOfBirth",
                 "gender",
-                "region",
-                "departement",
-                "chefLieu",
-                "sousPrefecture",
+                "Region",
+                "Departement",
+                "ChefLieu",
+                "SousPrefecture",
                 "countryOfCitizenship",
                 "individualBiometrics"
             ],
@@ -173,35 +176,35 @@
                     "fieldType": "default",
                     "$ref": "#/definitions/simpleType"
                 },
-                "region": {
-                    "bioAttributes": [],
-                    "fieldCategory": "pvt",
-                    "format": "none",
-                    "fieldType": "default",
-                    "$ref": "#/definitions/simpleType"
-                },
-                "departement": {
-                    "bioAttributes": [],
-                    "fieldCategory": "pvt",
-                    "format": "none",
-                    "fieldType": "default",
-                    "$ref": "#/definitions/simpleType"
-                },
-                "chefLieu": {
-                    "bioAttributes": [],
-                    "fieldCategory": "pvt",
-                    "format": "none",
-                    "fieldType": "default",
-                    "$ref": "#/definitions/simpleType"
-                },
-                "sousPrefecture": {
-                    "bioAttributes": [],
-                    "fieldCategory": "pvt",
-                    "format": "none",
-                    "fieldType": "default",
-                    "$ref": "#/definitions/simpleType"
-                },
-                "commune": {
+                "Region": {
+                    "bioAttributes": [],
+                    "fieldCategory": "pvt",
+                    "format": "none",
+                    "fieldType": "default",
+                    "$ref": "#/definitions/simpleType"
+                },
+                "Departement": {
+                    "bioAttributes": [],
+                    "fieldCategory": "pvt",
+                    "format": "none",
+                    "fieldType": "default",
+                    "$ref": "#/definitions/simpleType"
+                },
+                "ChefLieu": {
+                    "bioAttributes": [],
+                    "fieldCategory": "pvt",
+                    "format": "none",
+                    "fieldType": "default",
+                    "$ref": "#/definitions/simpleType"
+                },
+                "SousPrefecture": {
+                    "bioAttributes": [],
+                    "fieldCategory": "pvt",
+                    "format": "none",
+                    "fieldType": "default",
+                    "$ref": "#/definitions/simpleType"
+                },
+                "Commune": {
                     "bioAttributes": [],
                     "fieldCategory": "pvt",
                     "format": "none",
@@ -479,9 +482,6 @@
         }
     }
 }</t>
-  </si>
-  <si>
-    <t>fra</t>
   </si>
 </sst>
 </file>
@@ -872,7 +872,7 @@
   <dimension ref="A1:AMJ2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -925,7 +925,7 @@
     </row>
     <row r="2" spans="1:10" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2">
         <v>1001</v>
@@ -940,7 +940,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>12</v>

--- a/mosip_master/xlsx/identity_schema.xlsx
+++ b/mosip_master/xlsx/identity_schema.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mosip\CIV\CODE\mosip-data\mosip_master\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MicroTech\IdeaProjects\mosip-data-mec\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395A6B9F-034A-4BB4-9D37-FE72F0821BB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8963A37E-93E4-491C-9DFF-F97E80FE6C01}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -157,12 +157,13 @@
                 "Region",
                 "Departement",
                 "ChefLieu",
-                "SousPrefecture",
+                "SousPrefectures",
                 "countryOfCitizenship",
-                "individualBiometrics"
+                "individualBiometrics",
+                "residenceStatus"
             ],
             "properties": {
-                "proofOfAddress": {
+                "proofOfCnamEnrollment": {
                     "bioAttributes": [],
                     "fieldCategory": "pvt",
                     "format": "none",
@@ -197,7 +198,7 @@
                     "fieldType": "default",
                     "$ref": "#/definitions/simpleType"
                 },
-                "SousPrefecture": {
+                "SousPrefectures": {
                     "bioAttributes": [],
                     "fieldCategory": "pvt",
                     "format": "none",
@@ -252,13 +253,6 @@
                     "format": "none",
                     "fieldType": "default",
                     "$ref": "#/definitions/biometricsType"
-                },
-                "proofOfDateOfBirth": {
-                    "bioAttributes": [],
-                    "fieldCategory": "pvt",
-                    "format": "none",
-                    "fieldType": "default",
-                    "$ref": "#/definitions/documentType"
                 },
                 "addressLine1": {
                     "bioAttributes": [],
@@ -872,26 +866,26 @@
   <dimension ref="A1:AMJ2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.453125" style="1"/>
-    <col min="2" max="2" width="8.453125" style="2"/>
-    <col min="3" max="3" width="11.54296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.453125" style="1"/>
-    <col min="5" max="5" width="15.453125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="53.7265625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7265625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.453125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.44140625" style="1"/>
+    <col min="2" max="2" width="8.44140625" style="2"/>
+    <col min="3" max="3" width="11.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" style="1"/>
+    <col min="5" max="5" width="15.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="53.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" style="2" customWidth="1"/>
     <col min="9" max="9" width="10" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.453125" style="2"/>
-    <col min="11" max="1023" width="8.453125" style="1"/>
-    <col min="1024" max="1024" width="11.54296875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.44140625" style="2"/>
+    <col min="11" max="1023" width="8.44140625" style="1"/>
+    <col min="1024" max="1024" width="11.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -923,7 +917,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>

--- a/mosip_master/xlsx/identity_schema.xlsx
+++ b/mosip_master/xlsx/identity_schema.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MicroTech\IdeaProjects\mosip-data-mec\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8963A37E-93E4-491C-9DFF-F97E80FE6C01}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED95FAFC-2F6C-4A30-B3C4-2150409916D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -866,7 +866,7 @@
   <dimension ref="A1:AMJ2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
